--- a/Reporting/Bronze_tables/Price/df_prices_historical.xlsx
+++ b/Reporting/Bronze_tables/Price/df_prices_historical.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,77 +440,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>benchmark_date</t>
+          <t>date</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>timestamp</t>
+          <t>1m SOFR</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>1m SOFR</t>
+          <t>3m SOFR</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>3m SOFR</t>
+          <t>6m SOFR</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>6m SOFR</t>
+          <t>1y SOFR</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>1y SOFR</t>
+          <t>1m LIBOR</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>1m LIBOR</t>
+          <t>3m LIBOR</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>3m LIBOR</t>
+          <t>1m A1/P1 CP</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>1m A1/P1 CP</t>
+          <t>3m A1/P1 CP</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>3m A1/P1 CP</t>
+          <t>6m A1/P1 CP</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>6m A1/P1 CP</t>
+          <t>9m A1/P1 CP</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>9m A1/P1 CP</t>
+          <t>1m T-Bill</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>1m T-Bill</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
           <t>3m T-Bill</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>912797LH8</t>
         </is>
       </c>
     </row>
@@ -514,54 +508,176 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2024-08-23</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2024-08-23 14:33:22</t>
-        </is>
+      <c r="B2" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.31017</v>
       </c>
       <c r="D2" t="n">
+        <v>5.12612</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.84132</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4.39539</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5.42465</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5.38773</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5.342</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5.197</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.31145</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.12108</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.82768</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.37834</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5.42593</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5.38269</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5.313</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5.174</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.30858</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.10176</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4.81009</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4.33885</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5.42306</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5.36337</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5.296</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5.149</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="C5" t="n">
         <v>5.27795</v>
       </c>
-      <c r="E2" t="n">
+      <c r="D5" t="n">
         <v>5.07131</v>
       </c>
-      <c r="F2" t="n">
+      <c r="E5" t="n">
         <v>4.75475</v>
       </c>
-      <c r="G2" t="n">
+      <c r="F5" t="n">
         <v>4.26359</v>
       </c>
-      <c r="H2" t="n">
+      <c r="G5" t="n">
         <v>5.39243</v>
       </c>
-      <c r="I2" t="n">
+      <c r="H5" t="n">
         <v>5.33292</v>
       </c>
-      <c r="J2" t="n">
+      <c r="I5" t="n">
         <v>5.26</v>
       </c>
-      <c r="K2" t="n">
+      <c r="J5" t="n">
         <v>5.1</v>
       </c>
-      <c r="L2" t="n">
+      <c r="K5" t="n">
         <v>4.89</v>
       </c>
-      <c r="M2" t="n">
+      <c r="L5" t="n">
         <v>4.69</v>
       </c>
-      <c r="N2" t="n">
+      <c r="M5" t="n">
         <v>5.314</v>
       </c>
-      <c r="O2" t="n">
+      <c r="N5" t="n">
         <v>5.165</v>
-      </c>
-      <c r="P2" t="n">
-        <v>5.2225</v>
       </c>
     </row>
   </sheetData>
